--- a/bin/test/xlsx/test.xlsx
+++ b/bin/test/xlsx/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-75" windowWidth="29040" windowHeight="2895"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>int1</t>
   </si>
   <si>
-    <t>int2</t>
-  </si>
-  <si>
     <t>intarray1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -35,18 +32,6 @@
     <t>stringarray2</t>
   </si>
   <si>
-    <t>test string1</t>
-  </si>
-  <si>
-    <t>test string2</t>
-  </si>
-  <si>
-    <t>test string111</t>
-  </si>
-  <si>
-    <t>test string2222</t>
-  </si>
-  <si>
     <t>1|2|3|4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,19 +60,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[[]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint[[]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看不见看不见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是你二叔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是你外公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是孙悟空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是你三大爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是你四舅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str1client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str2server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#井号注掉一列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>kkkk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
+    <t>这是int1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是你叔叔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -95,75 +144,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[[]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint[[]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是int1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看不见看不见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是你叔叔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是你二叔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是你外公</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是孙悟空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是你三大爷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是你四舅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>str1client</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>str2server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#井号注掉一列</t>
+    <t>test str1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teststr2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teststr101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teststr202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cccc333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sssss33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,48 +509,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="80.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="80.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -560,124 +562,129 @@
       <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
+      <c r="H4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>10000101</v>
       </c>
-      <c r="B5">
-        <v>12345</v>
+      <c r="B5" t="s">
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>10000102</v>
       </c>
-      <c r="B6">
-        <v>54321</v>
+      <c r="B6" t="s">
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>10000103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/bin/test/xlsx/test.xlsx
+++ b/bin/test/xlsx/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-75" windowWidth="29040" windowHeight="2895"/>
+    <workbookView xWindow="-120" yWindow="-75" windowWidth="29040" windowHeight="3240"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>int1</t>
   </si>
   <si>
-    <t>intarray1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stringarray1</t>
-  </si>
-  <si>
     <t>intarray2</t>
   </si>
   <si>
@@ -40,14 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hello|world|world|hello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hello11|world22|world33|hello44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>41000001|100|1+51000001|200|2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string[[]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,14 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint[[]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>看不见看不见</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,6 +138,42 @@
   </si>
   <si>
     <t>sssss33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stringarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntArr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringArr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hehe|haha|hel|lo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xixi|haha|wo|rld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|6|77|888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq|ww|ee|rr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[[]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +521,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -521,20 +530,21 @@
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="34.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="80.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -542,74 +552,74 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -617,25 +627,25 @@
         <v>10000101</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -643,25 +653,25 @@
         <v>10000102</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -669,22 +679,22 @@
         <v>10000103</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/bin/test/xlsx/test.xlsx
+++ b/bin/test/xlsx/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-75" windowWidth="29040" windowHeight="3240"/>
+    <workbookView xWindow="-450" yWindow="45" windowWidth="29040" windowHeight="3060"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
   <si>
     <t>int1</t>
   </si>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string[[]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,7 +169,193 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int[[]]</t>
+    <t>name_icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称与icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100101|100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币|icon_money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300201|50</t>
+  </si>
+  <si>
+    <t>圣剑|icon_weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700301|12</t>
+  </si>
+  <si>
+    <t>天星岩|icon_xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntArr2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringArr2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_sg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_mt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_namr_arr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int2Arr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String2Arr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个单类型奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100101|100+300201|50+700301|12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_gold|金币+icon_weapon_456|圣剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100101|100+300201|50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_weapon_456|圣剑+icon_material_123|天星岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_gold|金币+icon_material_123|天星岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idtypenum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂奖励单个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符字符字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100101|1|100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_gold|金币|show_1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300201|3|50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_weapon_456|圣剑|show_456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700301|7|12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_material_123|天星岩|sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_mt_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str3arr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int3Arr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String3Arr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复杂奖励多个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str3数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100101|1|100+300201|3|50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_gold|金币|show_1234+icon_weapon_456|圣剑|show_456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300201|3|50+700301|7|12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_gold|金币|show_1234+icon_weapon_789|金币|show_123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100101|1|100+700301|7|12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -532,168 +714,320 @@
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="80.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="30.375" customWidth="1"/>
+    <col min="10" max="10" width="44.625" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="29.25" customWidth="1"/>
+    <col min="13" max="13" width="24.75" customWidth="1"/>
+    <col min="14" max="14" width="53.875" customWidth="1"/>
+    <col min="15" max="15" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="80.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:16">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
       <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="P4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>10000101</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" t="s">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
+      <c r="P5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>10000102</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" t="s">
+      <c r="P6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>10000103</v>
       </c>
       <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
       <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
+      <c r="P7" t="s">
         <v>7</v>
       </c>
     </row>

--- a/bin/test/xlsx/test.xlsx
+++ b/bin/test/xlsx/test.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A838C3-470C-4AF9-B265-1DDC26AC1381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-450" yWindow="45" windowWidth="29040" windowHeight="3060"/>
+    <workbookView xWindow="2160" yWindow="10845" windowWidth="51150" windowHeight="4305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -362,8 +363,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,11 +413,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -458,7 +467,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,9 +499,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,6 +551,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -699,14 +744,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
@@ -726,7 +771,7 @@
     <col min="16" max="16" width="80.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>18</v>
       </c>
@@ -737,7 +782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -787,7 +832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -834,7 +879,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -884,7 +929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10000101</v>
       </c>
@@ -934,7 +979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>10000102</v>
       </c>
@@ -984,7 +1029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>10000103</v>
       </c>

--- a/bin/test/xlsx/test.xlsx
+++ b/bin/test/xlsx/test.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A838C3-470C-4AF9-B265-1DDC26AC1381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="10845" windowWidth="51150" windowHeight="4305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-450" yWindow="45" windowWidth="29040" windowHeight="3060"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -363,8 +362,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,19 +412,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -467,7 +458,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,27 +490,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -551,24 +524,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -744,14 +699,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
@@ -771,7 +726,7 @@
     <col min="16" max="16" width="80.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16">
       <c r="B1" t="s">
         <v>18</v>
       </c>
@@ -782,7 +737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -832,7 +787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -879,7 +834,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -929,7 +884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>10000101</v>
       </c>
@@ -979,7 +934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>10000102</v>
       </c>
@@ -1029,7 +984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>10000103</v>
       </c>
